--- a/truck/Table/Hero.xlsx
+++ b/truck/Table/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63DE7DD-876A-48C6-A18C-B27B097DDD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A227A9-6B38-4457-917F-9EDB37715113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1980" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="28680" yWindow="1980" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Hero" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="175">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -698,6 +698,25 @@
   </si>
   <si>
     <t>일정확률추가공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>strong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌드업 웨이브에서 뽑을 때
+이 등급이 등장할 확률
+해당 태그의 Rate를 합산하고
+그 중 하나 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1239,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1252,8 +1271,7 @@
     <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="10" width="21.875" customWidth="1"/>
-    <col min="11" max="11" width="18" style="13" customWidth="1"/>
+    <col min="8" max="11" width="21.875" customWidth="1"/>
     <col min="12" max="12" width="20.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1288,7 +1306,7 @@
       <c r="J1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="L1" s="9" t="s">
@@ -1324,7 +1342,7 @@
       <c r="J2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="4" t="s">
         <v>120</v>
       </c>
       <c r="L2" s="10" t="s">
@@ -1362,7 +1380,7 @@
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="11" t="s">
@@ -1400,7 +1418,7 @@
       <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="L4" s="12" t="s">
@@ -1420,7 +1438,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2112,8 +2130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918D3955-5124-4F5B-96D6-F7A551F35F3F}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2262,7 +2280,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2392,19 +2410,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC7C65A-0083-4F3A-8A48-1E0129B4629D}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2412,15 +2432,29 @@
         <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2428,78 +2462,130 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>121</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="16">
+        <v>70</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" s="16">
+        <v>30</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="16">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" s="16">
+        <v>40</v>
+      </c>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>123</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="16">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" s="16">
+        <v>53</v>
+      </c>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>124</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="16">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" s="16">
+        <v>70</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
         <v>125</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="16">
+        <v>2</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" s="16">
+        <v>93</v>
+      </c>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>132</v>
       </c>
+      <c r="E9" s="16">
+        <v>124</v>
+      </c>
+      <c r="F9" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/truck/Table/Hero.xlsx
+++ b/truck/Table/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A227A9-6B38-4457-917F-9EDB37715113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC5FB37-3544-4BA8-AA1D-B188A9145FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1980" windowWidth="29040" windowHeight="15840" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Hero" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="223">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
   </si>
   <si>
     <t>hero_1_ability</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_1_tower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -701,10 +697,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -718,6 +710,184 @@
 해당 태그의 Rate를 합산하고
 그 중 하나 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가로칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세로칸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_1_1</t>
+  </si>
+  <si>
+    <t>hero_2</t>
+  </si>
+  <si>
+    <t>hero_3</t>
+  </si>
+  <si>
+    <t>hero_2_tower_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_2_tower_2</t>
+  </si>
+  <si>
+    <t>hero_2_tower_3</t>
+  </si>
+  <si>
+    <t>hero_2_tower_4</t>
+  </si>
+  <si>
+    <t>hero_2_tower_5</t>
+  </si>
+  <si>
+    <t>hero_2_tower_6</t>
+  </si>
+  <si>
+    <t>hero_2_tower</t>
+  </si>
+  <si>
+    <t>hero_2_tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_3_tower_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_3_tower_2</t>
+  </si>
+  <si>
+    <t>hero_3_tower_3</t>
+  </si>
+  <si>
+    <t>hero_3_tower_4</t>
+  </si>
+  <si>
+    <t>hero_3_tower_5</t>
+  </si>
+  <si>
+    <t>hero_3_tower_6</t>
+  </si>
+  <si>
+    <t>hero_3_tower</t>
+  </si>
+  <si>
+    <t>hero_3_tower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_2_tower_1_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_2_tower_2_name</t>
+  </si>
+  <si>
+    <t>hero_2_tower_3_name</t>
+  </si>
+  <si>
+    <t>hero_2_tower_4_name</t>
+  </si>
+  <si>
+    <t>hero_2_tower_5_name</t>
+  </si>
+  <si>
+    <t>hero_2_tower_6_name</t>
+  </si>
+  <si>
+    <t>hero_3_tower_1_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_3_tower_2_name</t>
+  </si>
+  <si>
+    <t>hero_3_tower_3_name</t>
+  </si>
+  <si>
+    <t>hero_3_tower_4_name</t>
+  </si>
+  <si>
+    <t>hero_3_tower_5_name</t>
+  </si>
+  <si>
+    <t>hero_3_tower_6_name</t>
+  </si>
+  <si>
+    <t>TEMP_3x2</t>
+  </si>
+  <si>
+    <t>TEMP_3x3</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill테이블에서
+해당 키 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Hero시트의
+TableHeroTower
+확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투할 타워 주소
+(게임옵젝의
+Tower폴더)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 인벤토리에서
+보여줄 프리팹 주소
+(게임옵젝의
+Data/Prefabs/Ui/
+UiComponent/Portraits</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_1_1</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_3x2</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_3x3</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThumbnailAddr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_1_tower</t>
   </si>
 </sst>
 </file>
@@ -782,7 +952,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -804,6 +974,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,7 +1041,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +1091,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1256,10 +1438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1298,10 +1480,10 @@
         <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>13</v>
@@ -1319,7 +1501,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -1328,25 +1510,25 @@
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1372,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>3</v>
@@ -1410,18 +1592,94 @@
         <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>222</v>
       </c>
       <c r="L4" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1453,13 +1711,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1469,10 +1727,10 @@
         <v>24</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1491,10 +1749,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -1505,10 +1763,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -1519,10 +1777,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -1533,10 +1791,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="3">
         <v>9</v>
@@ -1547,10 +1805,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3">
         <v>11</v>
@@ -1561,10 +1819,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="3">
         <v>13</v>
@@ -1575,10 +1833,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="3">
         <v>17</v>
@@ -1589,10 +1847,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="3">
         <v>21</v>
@@ -1603,10 +1861,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="3">
         <v>23</v>
@@ -1617,10 +1875,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -1631,10 +1889,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" s="8">
         <v>3</v>
@@ -1645,10 +1903,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="8">
         <v>5</v>
@@ -1659,10 +1917,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="8">
         <v>9</v>
@@ -1673,10 +1931,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" s="8">
         <v>11</v>
@@ -1687,10 +1945,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="8">
         <v>13</v>
@@ -1701,10 +1959,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="8">
         <v>17</v>
@@ -1715,10 +1973,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="8">
         <v>21</v>
@@ -1729,10 +1987,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>65</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="C21" s="8">
         <v>23</v>
@@ -1743,10 +2001,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -1757,10 +2015,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -1771,10 +2029,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
@@ -1785,10 +2043,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3">
         <v>9</v>
@@ -1799,10 +2057,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="3">
         <v>11</v>
@@ -1813,10 +2071,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3">
         <v>13</v>
@@ -1827,10 +2085,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="3">
         <v>17</v>
@@ -1841,10 +2099,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="3">
         <v>21</v>
@@ -1855,10 +2113,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="3">
         <v>23</v>
@@ -1869,10 +2127,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
@@ -1883,10 +2141,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C32" s="8">
         <v>3</v>
@@ -1897,10 +2155,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C33" s="8">
         <v>5</v>
@@ -1911,10 +2169,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C34" s="8">
         <v>9</v>
@@ -1925,10 +2183,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="8">
         <v>11</v>
@@ -1939,10 +2197,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="8">
         <v>13</v>
@@ -1953,10 +2211,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="8">
         <v>17</v>
@@ -1967,10 +2225,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="8">
         <v>21</v>
@@ -1981,10 +2239,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="8">
         <v>23</v>
@@ -1995,10 +2253,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -2009,10 +2267,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -2023,10 +2281,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C42" s="3">
         <v>5</v>
@@ -2037,10 +2295,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C43" s="3">
         <v>9</v>
@@ -2051,10 +2309,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="3">
         <v>11</v>
@@ -2065,10 +2323,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C45" s="3">
         <v>13</v>
@@ -2079,10 +2337,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="3">
         <v>17</v>
@@ -2093,10 +2351,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C47" s="3">
         <v>21</v>
@@ -2107,10 +2365,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C48" s="3">
         <v>23</v>
@@ -2151,34 +2409,34 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2203,13 +2461,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -2219,13 +2477,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="3">
         <v>1.4999999999999999E-2</v>
@@ -2237,13 +2495,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6" s="3">
         <v>0.2</v>
@@ -2255,13 +2513,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -2299,10 +2557,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>17</v>
@@ -2314,14 +2572,14 @@
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>18</v>
@@ -2330,10 +2588,10 @@
         <v>19</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2361,7 +2619,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -2370,7 +2628,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>28</v>
@@ -2382,7 +2640,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
@@ -2391,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>28</v>
@@ -2410,10 +2668,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC7C65A-0083-4F3A-8A48-1E0129B4629D}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2421,40 +2679,66 @@
     <col min="1" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="6" width="13.625" customWidth="1"/>
+    <col min="5" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2468,119 +2752,542 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="16">
         <v>70</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" s="16">
-        <v>30</v>
-      </c>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" s="16">
         <v>20</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" s="16">
-        <v>40</v>
-      </c>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="16">
         <v>4</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E6" s="16">
-        <v>53</v>
-      </c>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="E7" s="16">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>2</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="16">
-        <v>3</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="16">
-        <v>70</v>
-      </c>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="B8" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="16">
         <v>2</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="16">
-        <v>93</v>
-      </c>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>2</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E9" s="16">
-        <v>124</v>
-      </c>
-      <c r="F9" s="16"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="18">
+        <v>70</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="18">
+        <v>3</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11" s="18">
+        <v>20</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="18">
+        <v>3</v>
+      </c>
+      <c r="F11" s="18">
+        <v>2</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="18">
+        <v>4</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E12" s="18">
+        <v>3</v>
+      </c>
+      <c r="F12" s="18">
+        <v>2</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="18">
+        <v>3</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="18">
+        <v>3</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="18">
+        <v>2</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14" s="18">
+        <v>3</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="E15" s="18">
+        <v>3</v>
+      </c>
+      <c r="F15" s="18">
+        <v>2</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="16">
+        <v>70</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="16">
+        <v>3</v>
+      </c>
+      <c r="F16" s="16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="16">
+        <v>20</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="16">
+        <v>3</v>
+      </c>
+      <c r="F17" s="16">
+        <v>3</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C18" s="16">
+        <v>4</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="E18" s="16">
+        <v>3</v>
+      </c>
+      <c r="F18" s="16">
+        <v>3</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="16">
+        <v>3</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="16">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16">
+        <v>3</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C20" s="16">
+        <v>2</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="E20" s="16">
+        <v>3</v>
+      </c>
+      <c r="F20" s="16">
+        <v>3</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="16">
+        <v>1</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E21" s="16">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16">
+        <v>3</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2594,7 +3301,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2616,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -2631,50 +3338,50 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2714,7 +3421,7 @@
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>31</v>
@@ -2723,10 +3430,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>143</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>144</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -2735,7 +3442,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I4" s="14">
         <v>0.08</v>
@@ -2745,7 +3452,7 @@
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>31</v>
@@ -2754,10 +3461,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -2766,7 +3473,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I5" s="14">
         <v>0.05</v>
@@ -2776,7 +3483,7 @@
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>31</v>
@@ -2785,10 +3492,10 @@
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>147</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>148</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
@@ -2797,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I6" s="14">
         <v>0.2</v>
@@ -2809,7 +3516,7 @@
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>31</v>
@@ -2818,10 +3525,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>149</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>150</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -2836,7 +3543,7 @@
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>31</v>
@@ -2845,10 +3552,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>151</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>152</v>
       </c>
       <c r="F8" s="14">
         <v>2</v>
@@ -2863,7 +3570,7 @@
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>31</v>
@@ -2872,10 +3579,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>154</v>
       </c>
       <c r="F9" s="14">
         <v>2</v>
@@ -2890,7 +3597,7 @@
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>31</v>
@@ -2899,10 +3606,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="F10" s="14">
         <v>3</v>
@@ -2917,7 +3624,7 @@
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>31</v>
@@ -2926,10 +3633,10 @@
         <v>2</v>
       </c>
       <c r="D11" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>157</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>158</v>
       </c>
       <c r="F11" s="14">
         <v>3</v>

--- a/truck/Table/Hero.xlsx
+++ b/truck/Table/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC5FB37-3544-4BA8-AA1D-B188A9145FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC9B258-EF7F-49DD-8366-E9760ACA9935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Hero" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="224">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableHeroCitizen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableHeroTower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,20 +161,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero_1_citizen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hero_1_ability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>게이지 지급량</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>영웅의 인게임 범부 Tag
-태그 형식으로 범부 소환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -385,19 +372,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3\5\7\9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableHeroRankEffect</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RankEffectNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero_1_rank_3\hero_1_rank_5\hero_1_rank_7\hero_1_rank_9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,11 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>★목요일 이어서 작업
-영웅의 인게임 타워 Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hero_1_tower_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -554,12 +528,6 @@
   </si>
   <si>
     <t>hero_1_tower_6_name</t>
-  </si>
-  <si>
-    <t>★목요일 이어서 작업
-인게임 로그라이크성
-레벨업 효과 목록 Tag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>hero_1_ability_1</t>
@@ -698,10 +666,6 @@
   </si>
   <si>
     <t>Skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>strong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -870,16 +834,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Thumbnail_Tower_3x2</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_3x3</t>
+  </si>
+  <si>
     <t>Thumbnail_Tower_1_1</t>
-  </si>
-  <si>
-    <t>Thumbnail_Tower_3x2</t>
-  </si>
-  <si>
-    <t>Thumbnail_Tower_3x3</t>
-  </si>
-  <si>
-    <t>Thumbnail_Tower_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -888,6 +849,40 @@
   </si>
   <si>
     <t>hero_1_tower</t>
+  </si>
+  <si>
+    <t>★영웅의 인게임 타워 Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★추후 작업
+인게임 로그라이크성
+레벨업 효과 목록 Tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tier_5_2</t>
+  </si>
+  <si>
+    <t>Tier_5_3</t>
+  </si>
+  <si>
+    <t>Tier_5_4</t>
+  </si>
+  <si>
+    <t>Tier_5_5</t>
+  </si>
+  <si>
+    <t>Tier_5_6</t>
+  </si>
+  <si>
+    <t>Tier_5_7</t>
+  </si>
+  <si>
+    <t>Tier_5_8</t>
+  </si>
+  <si>
+    <t>Tier_5_9</t>
   </si>
 </sst>
 </file>
@@ -984,7 +979,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1035,13 +1030,87 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,6 +1166,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1438,10 +1537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C17399B-D4C3-4AB1-B3D3-2D958F901435}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1453,11 +1552,13 @@
     <col min="5" max="5" width="18.375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="11" width="21.875" customWidth="1"/>
-    <col min="12" max="12" width="20.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="3.375" customWidth="1"/>
+    <col min="12" max="15" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.875" customWidth="1"/>
+    <col min="17" max="17" width="20.625" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1477,31 +1578,34 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
@@ -1510,28 +1614,31 @@
         <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1553,137 +1660,193 @@
       <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H3" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G4" s="3">
         <v>9</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>7</v>
+      </c>
+      <c r="K4" s="3">
+        <v>9</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N4" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G5" s="3">
         <v>9</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3">
+        <v>7</v>
+      </c>
+      <c r="K5" s="3">
+        <v>9</v>
+      </c>
+      <c r="L5" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N5" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G6" s="3">
         <v>9</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7</v>
+      </c>
+      <c r="K6" s="3">
+        <v>9</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>31</v>
+      <c r="N6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="L3:O3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1694,9 +1857,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9A31FC-792D-4492-AB6C-C8C070DCD942}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1711,26 +1874,26 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1749,10 +1912,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4" s="3">
         <v>2</v>
@@ -1763,10 +1926,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C5" s="3">
         <v>3</v>
@@ -1777,10 +1940,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
@@ -1791,10 +1954,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="3">
         <v>9</v>
@@ -1805,10 +1968,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3">
         <v>11</v>
@@ -1819,10 +1982,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3">
         <v>13</v>
@@ -1833,10 +1996,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3">
         <v>17</v>
@@ -1847,10 +2010,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3">
         <v>21</v>
@@ -1861,10 +2024,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3">
         <v>23</v>
@@ -1875,10 +2038,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
@@ -1889,10 +2052,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C14" s="8">
         <v>3</v>
@@ -1903,10 +2066,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C15" s="8">
         <v>5</v>
@@ -1917,10 +2080,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="8">
         <v>9</v>
@@ -1931,10 +2094,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="8">
         <v>11</v>
@@ -1945,10 +2108,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="8">
         <v>13</v>
@@ -1959,10 +2122,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="C19" s="8">
         <v>17</v>
@@ -1973,10 +2136,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C20" s="8">
         <v>21</v>
@@ -1987,10 +2150,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C21" s="8">
         <v>23</v>
@@ -2001,10 +2164,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -2015,10 +2178,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3">
         <v>3</v>
@@ -2029,10 +2192,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
@@ -2043,10 +2206,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C25" s="3">
         <v>9</v>
@@ -2057,10 +2220,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" s="3">
         <v>11</v>
@@ -2071,10 +2234,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C27" s="3">
         <v>13</v>
@@ -2085,10 +2248,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="3">
         <v>17</v>
@@ -2099,10 +2262,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="3">
         <v>21</v>
@@ -2113,10 +2276,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3">
         <v>23</v>
@@ -2127,10 +2290,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C31" s="8">
         <v>2</v>
@@ -2141,10 +2304,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C32" s="8">
         <v>3</v>
@@ -2155,10 +2318,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" s="8">
         <v>5</v>
@@ -2169,10 +2332,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C34" s="8">
         <v>9</v>
@@ -2183,10 +2346,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C35" s="8">
         <v>11</v>
@@ -2197,10 +2360,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C36" s="8">
         <v>13</v>
@@ -2211,10 +2374,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C37" s="8">
         <v>17</v>
@@ -2225,10 +2388,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C38" s="8">
         <v>21</v>
@@ -2239,10 +2402,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8">
         <v>23</v>
@@ -2253,10 +2416,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -2267,10 +2430,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>68</v>
+        <v>216</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -2281,10 +2444,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>217</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C42" s="3">
         <v>5</v>
@@ -2295,10 +2458,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C43" s="3">
         <v>9</v>
@@ -2309,10 +2472,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>71</v>
+        <v>219</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C44" s="3">
         <v>11</v>
@@ -2323,10 +2486,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>72</v>
+        <v>220</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C45" s="3">
         <v>13</v>
@@ -2337,10 +2500,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C46" s="3">
         <v>17</v>
@@ -2351,10 +2514,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C47" s="3">
         <v>21</v>
@@ -2365,10 +2528,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>75</v>
+        <v>223</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C48" s="3">
         <v>23</v>
@@ -2389,7 +2552,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2409,34 +2572,34 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2461,13 +2624,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -2477,13 +2640,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D5" s="3">
         <v>1.4999999999999999E-2</v>
@@ -2495,13 +2658,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3">
         <v>0.2</v>
@@ -2513,13 +2676,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D7" s="3">
         <v>5</v>
@@ -2538,7 +2701,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2557,41 +2720,41 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="6" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -2619,19 +2782,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="3">
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3">
         <v>10</v>
@@ -2640,19 +2803,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3">
         <v>80</v>
@@ -2670,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC7C65A-0083-4F3A-8A48-1E0129B4629D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2689,53 +2852,53 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2752,33 +2915,33 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>171</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C4" s="16">
         <v>70</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E4" s="16">
         <v>2</v>
@@ -2787,27 +2950,27 @@
         <v>2</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C5" s="16">
         <v>20</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E5" s="16">
         <v>2</v>
@@ -2816,27 +2979,27 @@
         <v>2</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" s="16">
         <v>4</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E6" s="16">
         <v>2</v>
@@ -2845,27 +3008,27 @@
         <v>2</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="16">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="16">
-        <v>3</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="E7" s="16">
         <v>2</v>
@@ -2874,27 +3037,27 @@
         <v>2</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C8" s="16">
         <v>2</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E8" s="16">
         <v>2</v>
@@ -2903,27 +3066,27 @@
         <v>2</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C9" s="16">
         <v>1</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E9" s="16">
         <v>2</v>
@@ -2932,27 +3095,27 @@
         <v>2</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C10" s="18">
         <v>70</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E10" s="18">
         <v>3</v>
@@ -2961,27 +3124,27 @@
         <v>2</v>
       </c>
       <c r="G10" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H10" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>218</v>
-      </c>
       <c r="I10" s="18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C11" s="18">
         <v>20</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E11" s="18">
         <v>3</v>
@@ -2990,27 +3153,27 @@
         <v>2</v>
       </c>
       <c r="G11" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="18" t="s">
-        <v>218</v>
-      </c>
       <c r="I11" s="18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C12" s="18">
         <v>4</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E12" s="18">
         <v>3</v>
@@ -3019,27 +3182,27 @@
         <v>2</v>
       </c>
       <c r="G12" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>218</v>
-      </c>
       <c r="I12" s="18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C13" s="18">
         <v>3</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E13" s="18">
         <v>3</v>
@@ -3048,27 +3211,27 @@
         <v>2</v>
       </c>
       <c r="G13" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>218</v>
-      </c>
       <c r="I13" s="18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C14" s="18">
         <v>2</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E14" s="18">
         <v>3</v>
@@ -3077,27 +3240,27 @@
         <v>2</v>
       </c>
       <c r="G14" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>218</v>
-      </c>
       <c r="I14" s="18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C15" s="18">
         <v>1</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E15" s="18">
         <v>3</v>
@@ -3106,27 +3269,27 @@
         <v>2</v>
       </c>
       <c r="G15" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H15" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="H15" s="18" t="s">
-        <v>218</v>
-      </c>
       <c r="I15" s="18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C16" s="16">
         <v>70</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E16" s="16">
         <v>3</v>
@@ -3135,27 +3298,27 @@
         <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H16" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="I16" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C17" s="16">
         <v>20</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="E17" s="16">
         <v>3</v>
@@ -3164,27 +3327,27 @@
         <v>3</v>
       </c>
       <c r="G17" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="I17" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C18" s="16">
         <v>4</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E18" s="16">
         <v>3</v>
@@ -3193,27 +3356,27 @@
         <v>3</v>
       </c>
       <c r="G18" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H18" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H18" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="I18" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C19" s="16">
         <v>3</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E19" s="16">
         <v>3</v>
@@ -3222,27 +3385,27 @@
         <v>3</v>
       </c>
       <c r="G19" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="I19" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C20" s="16">
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E20" s="16">
         <v>3</v>
@@ -3251,27 +3414,27 @@
         <v>3</v>
       </c>
       <c r="G20" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="I20" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C21" s="16">
         <v>1</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E21" s="16">
         <v>3</v>
@@ -3280,13 +3443,13 @@
         <v>3</v>
       </c>
       <c r="G21" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="H21" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="I21" s="16" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3301,7 +3464,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3323,10 +3486,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -3338,50 +3501,50 @@
         <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3421,19 +3584,19 @@
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="14">
         <v>10</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F4" s="14">
         <v>1</v>
@@ -3442,7 +3605,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="I4" s="14">
         <v>0.08</v>
@@ -3452,19 +3615,19 @@
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="14">
         <v>10</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F5" s="14">
         <v>1</v>
@@ -3473,7 +3636,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="I5" s="14">
         <v>0.05</v>
@@ -3483,19 +3646,19 @@
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="14">
         <v>6</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F6" s="14">
         <v>1</v>
@@ -3504,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I6" s="14">
         <v>0.2</v>
@@ -3516,19 +3679,19 @@
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="14">
         <v>6</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -3543,19 +3706,19 @@
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="14">
         <v>4</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F8" s="14">
         <v>2</v>
@@ -3570,19 +3733,19 @@
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="14">
         <v>4</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F9" s="14">
         <v>2</v>
@@ -3597,19 +3760,19 @@
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10" s="14">
         <v>4</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F10" s="14">
         <v>3</v>
@@ -3624,19 +3787,19 @@
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="14">
         <v>2</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F11" s="14">
         <v>3</v>

--- a/truck/Table/Hero.xlsx
+++ b/truck/Table/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC9B258-EF7F-49DD-8366-E9760ACA9935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BE197-4B9A-46BE-8D44-2AC02E2EA6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Hero" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="225">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -805,10 +805,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PrefabAddr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill테이블에서
 해당 키 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -883,6 +879,13 @@
   </si>
   <si>
     <t>Tier_5_9</t>
+  </si>
+  <si>
+    <t>TEMP_3x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEMP_2x2</t>
   </si>
 </sst>
 </file>
@@ -1168,6 +1171,9 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1194,9 +1200,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,18 +1583,18 @@
       <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="19" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1619,23 +1622,23 @@
       <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="22" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="25"/>
       <c r="P2" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>214</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1660,18 +1663,18 @@
       <c r="G3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="25" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
       <c r="P3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1713,20 +1716,20 @@
       <c r="K4" s="3">
         <v>9</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="O4" s="28" t="s">
+      <c r="O4" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>29</v>
@@ -1766,16 +1769,16 @@
       <c r="K5" s="3">
         <v>9</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="M5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="N5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="O5" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P5" s="3" t="s">
@@ -1819,16 +1822,16 @@
       <c r="K6" s="3">
         <v>9</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="M6" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="N6" s="28" t="s">
+      <c r="N6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="19" t="s">
         <v>33</v>
       </c>
       <c r="P6" s="3" t="s">
@@ -1857,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9A31FC-792D-4492-AB6C-C8C070DCD942}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A40" sqref="A40:A48"/>
     </sheetView>
@@ -2430,7 +2433,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>84</v>
@@ -2444,7 +2447,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>84</v>
@@ -2458,7 +2461,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>84</v>
@@ -2472,7 +2475,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>84</v>
@@ -2486,7 +2489,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>84</v>
@@ -2500,7 +2503,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>84</v>
@@ -2514,7 +2517,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>84</v>
@@ -2528,7 +2531,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>84</v>
@@ -2833,8 +2836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC7C65A-0083-4F3A-8A48-1E0129B4629D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2867,10 +2870,10 @@
         <v>169</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>163</v>
@@ -2879,7 +2882,7 @@
     <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>164</v>
@@ -2892,13 +2895,13 @@
         <v>166</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2950,10 +2953,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>170</v>
@@ -2979,10 +2982,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>170</v>
@@ -3011,7 +3014,7 @@
         <v>202</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>170</v>
@@ -3037,10 +3040,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>170</v>
@@ -3066,10 +3069,10 @@
         <v>2</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>170</v>
@@ -3098,7 +3101,7 @@
         <v>202</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>170</v>
@@ -3124,10 +3127,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>170</v>
@@ -3156,7 +3159,7 @@
         <v>201</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>170</v>
@@ -3182,10 +3185,10 @@
         <v>2</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>170</v>
@@ -3211,10 +3214,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>170</v>
@@ -3243,7 +3246,7 @@
         <v>201</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>170</v>
@@ -3269,10 +3272,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>170</v>
@@ -3298,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>170</v>
@@ -3327,10 +3330,10 @@
         <v>3</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>170</v>
@@ -3359,7 +3362,7 @@
         <v>202</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>170</v>
@@ -3385,10 +3388,10 @@
         <v>3</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>170</v>
@@ -3414,10 +3417,10 @@
         <v>3</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>170</v>
@@ -3446,7 +3449,7 @@
         <v>202</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>170</v>

--- a/truck/Table/Hero.xlsx
+++ b/truck/Table/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BE197-4B9A-46BE-8D44-2AC02E2EA6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E3B3FD-B0B2-4CC8-8C91-8AC09A4E6DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="28680" yWindow="1980" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Hero" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="253">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -795,12 +795,6 @@
     <t>hero_3_tower_6_name</t>
   </si>
   <si>
-    <t>TEMP_3x2</t>
-  </si>
-  <si>
-    <t>TEMP_3x3</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -830,12 +824,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Thumbnail_Tower_3x2</t>
-  </si>
-  <si>
-    <t>Thumbnail_Tower_3x3</t>
-  </si>
-  <si>
     <t>Thumbnail_Tower_1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -881,11 +869,108 @@
     <t>Tier_5_9</t>
   </si>
   <si>
-    <t>TEMP_3x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEMP_2x2</t>
+    <t>Tower_1_2</t>
+  </si>
+  <si>
+    <t>Tower_1_3</t>
+  </si>
+  <si>
+    <t>Tower_1_4</t>
+  </si>
+  <si>
+    <t>Tower_1_5</t>
+  </si>
+  <si>
+    <t>Tower_1_6</t>
+  </si>
+  <si>
+    <t>Tower_2_1</t>
+  </si>
+  <si>
+    <t>Tower_2_2</t>
+  </si>
+  <si>
+    <t>Tower_2_3</t>
+  </si>
+  <si>
+    <t>Tower_2_4</t>
+  </si>
+  <si>
+    <t>Tower_2_5</t>
+  </si>
+  <si>
+    <t>Tower_2_6</t>
+  </si>
+  <si>
+    <t>Tower_3_1</t>
+  </si>
+  <si>
+    <t>Tower_3_2</t>
+  </si>
+  <si>
+    <t>Tower_3_3</t>
+  </si>
+  <si>
+    <t>Tower_3_4</t>
+  </si>
+  <si>
+    <t>Tower_3_5</t>
+  </si>
+  <si>
+    <t>Tower_3_6</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_1_2</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_1_3</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_1_4</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_1_5</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_1_6</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_2_2</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_2_3</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_2_4</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_2_5</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_2_6</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_3_2</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_3_3</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_3_4</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_3_5</t>
+  </si>
+  <si>
+    <t>Thumbnail_Tower_3_6</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +1720,10 @@
       <c r="N2" s="24"/>
       <c r="O2" s="25"/>
       <c r="P2" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1729,7 +1814,7 @@
         <v>33</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>29</v>
@@ -2433,7 +2518,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>84</v>
@@ -2447,7 +2532,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>84</v>
@@ -2461,7 +2546,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>84</v>
@@ -2475,7 +2560,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>84</v>
@@ -2489,7 +2574,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>84</v>
@@ -2503,7 +2588,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>84</v>
@@ -2517,7 +2602,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>84</v>
@@ -2531,7 +2616,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>84</v>
@@ -2837,7 +2922,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2873,7 +2958,7 @@
         <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>163</v>
@@ -2882,7 +2967,7 @@
     <row r="2" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>164</v>
@@ -2895,13 +2980,13 @@
         <v>166</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2924,10 +3009,10 @@
         <v>167</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>3</v>
@@ -2953,10 +3038,10 @@
         <v>2</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I4" s="16" t="s">
         <v>170</v>
@@ -2982,10 +3067,10 @@
         <v>2</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="I5" s="16" t="s">
         <v>170</v>
@@ -3011,10 +3096,10 @@
         <v>2</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="I6" s="16" t="s">
         <v>170</v>
@@ -3040,10 +3125,10 @@
         <v>2</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>170</v>
@@ -3069,10 +3154,10 @@
         <v>2</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="I8" s="16" t="s">
         <v>170</v>
@@ -3098,10 +3183,10 @@
         <v>2</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>170</v>
@@ -3130,7 +3215,7 @@
         <v>224</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="I10" s="18" t="s">
         <v>170</v>
@@ -3156,10 +3241,10 @@
         <v>2</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="I11" s="18" t="s">
         <v>170</v>
@@ -3185,10 +3270,10 @@
         <v>2</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>170</v>
@@ -3214,10 +3299,10 @@
         <v>2</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="I13" s="18" t="s">
         <v>170</v>
@@ -3243,10 +3328,10 @@
         <v>2</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="I14" s="18" t="s">
         <v>170</v>
@@ -3272,10 +3357,10 @@
         <v>2</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>170</v>
@@ -3301,10 +3386,10 @@
         <v>3</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="I16" s="16" t="s">
         <v>170</v>
@@ -3330,10 +3415,10 @@
         <v>3</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="I17" s="16" t="s">
         <v>170</v>
@@ -3359,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>170</v>
@@ -3388,10 +3473,10 @@
         <v>3</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="I19" s="16" t="s">
         <v>170</v>
@@ -3417,10 +3502,10 @@
         <v>3</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="I20" s="16" t="s">
         <v>170</v>
@@ -3446,10 +3531,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>170</v>

--- a/truck/Table/Hero.xlsx
+++ b/truck/Table/Hero.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\kci\truck\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A062DE4E-2FCC-48E8-8371-33301F0A3AF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A7E42D-9929-44D1-9718-0300CE5D9F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{E13B9AA5-2A18-43E8-8D01-C8614F668F08}"/>
   </bookViews>
   <sheets>
     <sheet name="#Hero" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="260">
   <si>
     <t>long</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,12 +917,33 @@
   <si>
     <t>별도 의견 있으면 추가 필요</t>
   </si>
+  <si>
+    <t>Gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연로</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*가스 = 트럭의 스탯. 인게임의 드라이브 씬에서, 트럭의 Gas만큼 지속시간이 늘어난다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,6 +1024,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1345,7 +1373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1498,6 +1526,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2815,10 +2846,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A47B673-7426-46DD-9004-B477D6A14D5D}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2871,6 +2902,17 @@
       </c>
       <c r="B6" s="41" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B57E27E-3B93-43A3-9B52-4A883B0FB831}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
